--- a/pred_ohlcv/54_21/2020-01-16 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 BTG ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>5459.978369609998</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>5836.403569609998</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5836.403569609998</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>5577.126769609999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>5937.562469609999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>6119.146169609999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>6988.022469609999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>6790.893069609999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>4926.265131619999</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>4895.31093162</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>5111.289931619998</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>4700.889231619998</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>5371.955531619997</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>5375.190931619996</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>5375.374931619996</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>5451.004931619997</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>5451.185931619996</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>6024.391895819996</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>5597.120487149996</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>5585.520487149995</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>5604.475287149996</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>5604.475287149996</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>5460.741487149996</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>4863.575187149996</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1326.488124889996</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1808.810424889995</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1808.810424889995</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1803.134524889995</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1827.554624889995</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1806.505924889995</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1806.505924889995</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1813.719524889995</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1791.181424889995</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1765.941424889995</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1627.139024889995</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1627.139024889995</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1596.420524889995</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1537.266724889995</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1285.084124889995</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1383.100024889995</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1383.100024889995</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1416.100024889995</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1416.100024889995</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1382.607024889996</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1373.607024889996</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1374.974424889996</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1352.974424889996</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2416.493224889996</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>2425.493224889996</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>2425.493224889996</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>2425.493224889996</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>2425.493224889996</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>2425.736124889996</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>2434.417324889996</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>2551.917324889996</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>2575.596724889996</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>2575.596724889996</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>2575.596724889996</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>2575.596724889996</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>2575.596724889996</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>2499.573024889996</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>2754.564024889996</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>3084.607124889996</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>3542.343857029996</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>3542.343857029996</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>3541.292557029996</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>3569.084757029996</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>3563.620457029996</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>3584.441802979995</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>3583.344102979996</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>3584.396153449995</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>3584.396153449995</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>3554.024553449995</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>3569.024553449995</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>3569.024553449995</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>3690.573987479996</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>3690.573987479996</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>4132.577143219995</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>4132.577143219995</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>4657.778843219995</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>5050.591343219995</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>6894.486043219995</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>7248.702655609995</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>7402.567055609995</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>8467.476066829995</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>74698.26362088999</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>78580.47420824999</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>87200.76825926999</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>83574.19564748999</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>77400.70566675</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>71072.06841841</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>77645.48626877999</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>86590.01200818</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>99376.97465657</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>78113.27790371999</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>78980.52585977998</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>83528.29611018999</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>88447.99489343999</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>90618.98633974999</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>87592.59724021998</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>85416.68889603998</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>81832.32761105998</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>76326.30058883998</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>70404.36798883998</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>74359.37720689998</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>76775.90192703999</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>74522.06914960999</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>65636.11998157999</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>62412.34620084999</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>58265.16550084999</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>54603.3738729</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>45834.19915685999</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>51736.60964342999</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>57881.93030296999</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>54321.96904690999</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>57023.26435286998</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 BTG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>6833.242522109998</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>6587.304369609999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>5836.403569609998</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5836.403569609998</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>4926.265131619999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>4895.31093162</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>5111.289931619998</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>4700.889231619998</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>7402.567055609995</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>8467.476066829995</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>74698.26362088999</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>78580.47420824999</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>87200.76825926999</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>83574.19564748999</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>77400.70566675</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>71072.06841841</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>77645.48626877999</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>86590.01200818</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>99376.97465657</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>87134.69581854</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>78113.27790371999</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>78980.52585977998</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>90618.98633974999</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>87592.59724021998</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>85416.68889603998</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>81832.32761105998</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>76326.30058883998</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>74359.37720689998</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>76775.90192703999</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>73253.87058726999</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>71646.74528561</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>72538.76380936999</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>71948.99466334</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>70954.64974025</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>51736.60964342999</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>57881.93030296999</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>54321.96904690999</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>57023.26435286998</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>63587.10668258998</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
